--- a/DOM_Banner/output/dept_banner/Muhammad Husnain_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Muhammad Husnain_2023.xlsx
@@ -2475,7 +2475,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2615497162", "https://openalex.org/W2478188943", "https://openalex.org/W2980429921", "https://openalex.org/W2903265867", "https://openalex.org/W3016534082", "https://openalex.org/W2731606591", "https://openalex.org/W2608137803", "https://openalex.org/W1999549312", "https://openalex.org/W4214820605", "https://openalex.org/W3121407702")</t>
+          <t>c("https://openalex.org/W2903721846", "https://openalex.org/W3085958492", "https://openalex.org/W4319754513", "https://openalex.org/W4386164736", "https://openalex.org/W4310125423", "https://openalex.org/W4385791443", "https://openalex.org/W4233799797", "https://openalex.org/W4320484874", "https://openalex.org/W4361888621", "https://openalex.org/W4387003809")</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4232146933", "https://openalex.org/W2048363928", "https://openalex.org/W1963989624", "https://openalex.org/W2164287263", "https://openalex.org/W1972131564", "https://openalex.org/W4229718260", "https://openalex.org/W4367672288", "https://openalex.org/W2129462573", "https://openalex.org/W3210359220", "https://openalex.org/W2324013405")</t>
+          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W3031052312", "https://openalex.org/W4389568370", "https://openalex.org/W3032375762", "https://openalex.org/W1995515455", "https://openalex.org/W2080531066", "https://openalex.org/W2586801360", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W1489783725")</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Muhammad Husnain_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Muhammad Husnain_2023.xlsx
@@ -1792,7 +1792,7 @@
 "https://openalex.org/A5059837345", "https://openalex.org/A5072384062", "https://openalex.org/A5045488025", "https://openalex.org/A5024171791", "https://openalex.org/A5007788864", "https://openalex.org/A5018688498", "https://openalex.org/A5047360677", "https://openalex.org/A5026675928", "https://openalex.org/A5023975501", "https://openalex.org/A5064967401", "https://openalex.org/A5049810032", "https://openalex.org/A5029086029", "https://openalex.org/A5005965813", "https://openalex.org/A5004795755", 
 "https://openalex.org/A5052763339", "https://openalex.org/A5026163557", "https://openalex.org/A5067814343", "https://openalex.org/A5015905923", "https://openalex.org/A5047706451", "https://openalex.org/A5008327529", "https://openalex.org/A5021625667", "https://openalex.org/A5052149227", "https://openalex.org/A5023908965", "https://openalex.org/A5021366052", "https://openalex.org/A5008189923"), au_display_name = c("Olufunmilola Adunni Abiodun", "Shalom Olamide Abiodun", "Nadia Akram", "Akbar Ali", 
 "Çağlar Altay", "Fozia Anjum", "Abimbola K. Arise", "Figen Balo", "Tarun Kanti Bandyopadhyay", "Kailash Barman", "Pranjal K. Baruah", "Sri Bharti", "Biswanath Bhunia", "Tanveer Hussain Bokhari", "Suresh Chandra Biswas", "Pinku Chandra Nath", "Adnan Fatih Dağdelen", "Jonali Das", "Ayse Neslihan Dundar", "Adeshina Fadeyibi", "K. C. Gupta", "Uzma Hira", "Muhammad Husnain", ". Inamuddin", "Pallavi Jain", "Shambhavi Jaiswal", "Shamim Khan", "Bably Khatun", "Mustafa Küçüktüvek", "T.K. Maji", "Asim Mansha", 
-"Shashi Kiran Misra", "Tanzeel Munawar", "Nishithendu Bikash Nandi", "P. Nayak", "Kamla Pathak", "Muthiah Perumalsamy", "Vipul Prajapati", "Khawaja Taimoor Rashid", "S. Rizwana", "Biplab Roy", "Salona Roy", "M. A. Saeed", "Oya Irmak Şahin", "Deepanka Saikia", "Furkan Türker Sarıcaoğlu", "Partha Pratim Sarma", "V.P. Sharma", "Madhur Babu Singh", "Prashant Singh", "Lutfu S. Sua", "Mira chares Subash", "Muhammad Usman"), au_orcid = c("https://orcid.org/0000-0003-4096-9775", NA, "https://orcid.org/0000-0002-4937-2409", 
+"Shashi Kiran Misra", "Tanzeel Munawar", "Nishithendu Bikash Nandi", "Prakash Kumar Nayak", "Kamla Pathak", "Muthiah Perumalsamy", "Vipul Prajapati", "Khawaja Taimoor Rashid", "S. Rizwana", "Biplab Roy", "Salona Roy", "M. A. Saeed", "Oya Irmak Şahin", "Deepanka Saikia", "Furkan Türker Sarıcaoğlu", "Partha Pratim Sarma", "V.P. Sharma", "Madhur Babu Singh", "Prashant Singh", "Lutfu S. Sua", "Mira chares Subash", "Muhammad Usman"), au_orcid = c("https://orcid.org/0000-0003-4096-9775", NA, "https://orcid.org/0000-0002-4937-2409", 
 NA, "https://orcid.org/0000-0003-1286-8600", NA, "https://orcid.org/0000-0003-2446-526X", "https://orcid.org/0000-0001-5886-730X", "https://orcid.org/0000-0002-5374-421X", NA, NA, NA, "https://orcid.org/0000-0003-1330-1606", "https://orcid.org/0000-0002-5247-9346", "https://orcid.org/0000-0001-7580-2399", NA, "https://orcid.org/0000-0002-6777-273X", NA, "https://orcid.org/0000-0003-2084-7076", NA, "https://orcid.org/0000-0001-7226-3561", "https://orcid.org/0000-0003-4140-0564", "https://orcid.org/0000-0001-7248-9835", 
 "https://orcid.org/0000-0003-0524-9940", "https://orcid.org/0000-0002-2809-6783", NA, "https://orcid.org/0000-0002-5447-8734", "https://orcid.org/0000-0001-7064-298X", "https://orcid.org/0000-0002-5354-359X", NA, "https://orcid.org/0000-0001-5659-0562", "https://orcid.org/0000-0001-5226-7127", NA, NA, "https://orcid.org/0000-0001-5811-6629", "https://orcid.org/0000-0001-9074-9792", NA, "https://orcid.org/0000-0002-7001-2504", NA, NA, "https://orcid.org/0000-0001-6124-8411", NA, "https://orcid.org/0000-0002-2476-5265", 
 "https://orcid.org/0000-0003-2225-7993", "https://orcid.org/0000-0003-0808-5400", "https://orcid.org/0000-0003-1173-5793", "https://orcid.org/0000-0001-9372-6828", NA, NA, "https://orcid.org/0000-0001-9884-7741", "https://orcid.org/0000-0003-4395-865X", "https://orcid.org/0000-0001-8713-8704", "https://orcid.org/0000-0001-9747-8892"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
@@ -2297,7 +2297,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4297828016", "https://openalex.org/W2352572120", "https://openalex.org/W2364166715", "https://openalex.org/W2382947985", "https://openalex.org/W2365097483", "https://openalex.org/W2351196788", "https://openalex.org/W2371552148", "https://openalex.org/W179192227", "https://openalex.org/W610032358", "https://openalex.org/W2357928342")</t>
+          <t>c("https://openalex.org/W2015747722", "https://openalex.org/W2362050182", "https://openalex.org/W2382418233", "https://openalex.org/W2369897927", "https://openalex.org/W3031731056", "https://openalex.org/W4293167957", "https://openalex.org/W2361035307", "https://openalex.org/W2380455807", "https://openalex.org/W2993975634", "https://openalex.org/W2367835030")</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Muhammad Husnain_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Muhammad Husnain_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ; MD Anderson Cancer Center, Houston, TX; Department of Medicine, University of Arizona, Tucson, AZ; Department of Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; Medical University of South Carolina, Charleston, SC; Medical University of South Carolina, Charleston, SC; Department of Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4302774171</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Chimeric Antigen Receptor T-Cell (CAR T-Cell) Therapy for Primary and Secondary Central Nervous System Lymphoma: A Systematic Review of Literature</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Clinical Lymphoma, Myeloma &amp; Leukemia</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clml.2022.09.008</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36328891</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clml.2022.09.008</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Chemistry, University of Agriculture, 38000 Faisalabad, Pakistan; Department of Chemistry, University of Agriculture, 38000 Faisalabad, Pakistan; Department of Basic Sciences, University of Engineering and Technology, Lahore, Faisalabad Campus, Pakistan; Department of Chemistry, The University of Lahore, Sub-Campus Sargodha, Sargodha Campus, Pakistan; Department of Energy Systems Engineering, U.S.-Pakistan Center for Advanced Studies in Energy (UPCAS-E), National University of Sciences and Technology (NUST), Islamabad, Pakistan; Department of Chemistry, College of Science, University of Bahrain, Sakhir P.O. Box 32038, Bahrain; Department of Chemistry, University of Agriculture, 38000 Faisalabad, Pakistan; Department of Chemistry, College of Science, University of Bahrain, Sakhir P.O. Box 32038, Bahrain; Department of Materials Science, Institute of Graduate Studies and Research, Alexandria University, Alexandria 21526, Egypt</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366124146</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A facile synthesis of WO3/g-C3N4 composite for chemical sensing of dopamine and hydrazine</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Materials Letters</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matlet.2023.134391</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matlet.2023.134391</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Cleveland Clinic, Cleveland, OH; Department of Internal Medicine, Mayo Clinic, Phoenix, AZ; Massachusetts General Hospital, Harvard Medical School, Boston, MA; University of Arizona Cancer Center, Tucson, AZ; Faculty of Health Sciences, McMaster University, Hamilton, ON, Canada; Huntsman Cancer Institute, University of Utah, Salt Lake City, UT; Department of Hematological Malignancies, Kansas University Medical Center, Kansas City, KS; Hematology and Medical Oncology, Medical College of Wisconsin, Milwaukee, WI; Dana-Farber Cancer Institute, Harvard Medical School, Boston, MA; Department of Internal Medicine, Mayo Clinic, Phoenix, AZ; Herbert Irving Comprehensive Cancer Center, Columbia University, NY, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377695552</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Incidence of second primary malignancies in patients with multiple myeloma receiving anti-CD38 monoclonal antibodies: A systematic review and meta-analysis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Leukemia Research</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.leukres.2023.107324</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37285641</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.leukres.2023.107324</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319262931</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Low Incidence of Fungal Infections after Chimeric Antigen Receptor T-Cell Therapy for Non-Hodgkin Lymphoma in an Endemic Region for Coccidioidomycosis</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(23)00501-8</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(23)00501-8</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Capital Health Medical Center, Trenton, USA; University of Cincinnati, Cincinnati, USA; Department of Internal Medicine, Florida State University/Sarasota Memorial Hospital, Sarasota, USA; King Edward Medical University, Lahore, Pakistan; Allama Iqbal Medical College, Lahore, Pakistan; Department of Medicine and Endocrinology, Forth Valley Royal Hospital, Larbert, UK; Multan Medical and Dental College, Multan, Pakistan; Hamad Medical Corporation, Doha, Qatar; Clements High School, Sugarland, USA; Department of Medicine, University of Arizona, Tucson, USA; Department of Medicine, University of Arizona, Tucson, USA; Taussig Cancer Center, Cleveland Clinic, Cleveland, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383371899</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Waldenström macroglobulinemia: a review of pathogenesis, current treatment, and future prospects</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Annals of Hematology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00277-023-05345-9</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37414960</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00277-023-05345-9</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319263251</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>School of Physical Sciences (SPS), University of the Punjab, New Campus, Lahore, Punjab, Pakistan; School of Physical Sciences (SPS), University of the Punjab, New Campus, Lahore, Punjab, Pakistan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319778449</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>An approach of smart packaging for home meals</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-95644-4.00018-8</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-95644-4.00018-8</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">Department of Home Economics and Food Science, University of Ilorin, Ilorin, Kwara State, Nigeria; Department of Biochemistry, Landmark University, Omu Aran, Kwara State, Nigeria; Department of Chemistry, Government College University Faisalabad, Faisalabad, Punjab, Pakistan; Department of Chemistry, Government College University Faisalabad, Faisalabad, Punjab, Pakistan; Department of Interior Design, Aydın Vocational School, Aydın Adnan Menderes University, Aydın, Turkey; Department of Chemistry, Government College University Faisalabad, Faisalabad, Punjab, Pakistan; Department of Home Economics and Food Science, University of Ilorin, Ilorin, Kwara State, Nigeria; Department of METE, Firat University, Elazig, Turkey; Department of Chemical Engineering, National Institute of Technology Agartala, Jirania, Tripura, India; Department of Food Engineering and Technology, Central Institute of Technology, Kokrajhar, Assam, India; Department of Applied Sciences, GUIST, Gauhati University, Guwahati, Assam, India; CSIR-IITR, Lucknow, Uttar Pradesh, India; Department of Bio Engineering, National Institute of Technology Agartala, Jirania, Tripura, India; Department of Chemistry, Government College University Faisalabad, Faisalabad, Punjab, Pakistan; ; Department of Bio Engineering, National Institute of Technology Agartala, Jirania, Tripura, India; Department of Food Engineering, Faculty of Engineering and Natural Science, Bursa Technical University, Bursa, Turkey; Department of Chemical Sciences, Tezpur University, Tezpur, Assam, India; Department of Food Engineering, Faculty of Engineering and Natural Science, Bursa Technical University, Bursa, Turkey; Department of Food and Agricultural Engineering, Faculty of Engineering and Technology, Kwara State University, Ilorin, Kwara, Nigeria; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319781227</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>List of contributors</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-95644-4.01002-0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-95644-4.01002-0</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321375831</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Optimising the Investor's Portfolio through Modern Portfolio Theory: Empirical Evidence from Pakistan</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>NUML international journal of business &amp; management</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>National University of Modern Languages</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.52015/nijbm.v17i2.138</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.52015/nijbm.v17i2.138</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4322506759</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>IRAN-CHINA DEAL: GEOSTRATEGIC-BALANCING AGAINST US</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Pakistan journal of social research</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.52567/pjsr.v5i01.1012</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.52567/pjsr.v5i01.1012</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,39 +1322,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Cleveland Clinic, Cleveland, OH; Division of Hematology/Oncology, Mayo Clinic, Phoenix, AZ; Massachusetts General Hospital, Boston, MA; The University of Arizona, Tucson, AZ; Faculty of Health Sciences, Hamilton, ON, Canada; Huntsman Cancer Institute, Salt Lake City, UT; University of Kansas Medical Center, Kansas City, KS; Medical College of Wisconsin, Milwaukee, WI; Dana-Farber Cancer Institute, Boston, MA; Columbia University Medical Center, New York, NY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379281877</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Incidence of second primary malignancies (SPMs) in patients with multiple myeloma (MM) receiving anti-CD38 monoclonal antibodies (mAbs): A systematic review and meta-analysis.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e24078</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e24078</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,39 +1409,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; Department of Pediatrics, University of Arizona; Departments of Immunobiology, Medicine, and Pathology, University of Arizona; University of Arizona Cancer Center, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379283607</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Hypophosphatemia and thrombocytopenia: A retrospective chart review to identify markers for prediction of CRS and ICANS in CAR T-cell therapy.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e14524</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e14524</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Biological Production Division, National Institute of Health, Islamabad, Pakistan; Department of Microbiology, Quaid-i-Azam University, Islamabad, 44100, Pakistan; Department of Microbiology, Quaid-i-Azam University, Islamabad, 44100, Pakistan; Biological Production Division, National Institute of Health, Islamabad, Pakistan; Department of Biochemistry, Quaid-i-Azam University, Islamabad, 44100, Pakistan; Department of Zoology, Quaid-i-Azam University, Islamabad, 44100, Pakistan; Biological Production Division, National Institute of Health, Islamabad, Pakistan; Animal Production Department, Faculty of Agriculture, Zagazig University, Zagazig, 44519, Egypt; National Institute for Genomics and Advanced Biotechnology (NIGAB), National Agricultural Research Centre, Park Road, Islamabad, 45500, Pakistan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380322321</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Immune-adjuvant effect of vitamin A and probiotics supplementation on humoral response to cell culture rabies vaccine in rabbits</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>3 Biotech</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13205-023-03631-x</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37323857</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13205-023-03631-x</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,24 +1583,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Government College University, Faisalabad</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383911318</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Review of: "Developing A Novel Solvent System to Isolate Plant Pigments of Different Polarities Using Thin Layer Chromatography"</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>https://doi.org/10.32388/idjqqq</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.32388/idjqqq</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>peer-review</t>
         </is>
@@ -1595,39 +1670,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, USA; University of Arizona Cancer Center, Tucson, AZ, USA; University of Arizona Cancer Center, Tucson, AZ, USA; University of Arizona Cancer Center, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385809811</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Hypophosphatemia and pre-infusion thrombocytopenia as biomarkers for CRS and ICANS after CAR T therapy</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bone Marrow Transplantation</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41409-023-02083-4</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37580398</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41409-023-02083-4</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Department of Medicine, Combined Military Hospital Lahore/National University of Medical Sciences (NUMS) Pakistan; Department of Medicine, Combined Military Hospital Lahore/National University of Medical Sciences (NUMS) Pakistan; Department of Medicine, Combined Military Hospital Lahore/National University of Medical Sciences (NUMS) Pakistan; Department of Medicine, Combined Military Hospital Lahore/National University of Medical Sciences (NUMS) Pakistan; Department of Medicine, Combined Military Hospital Lahore/National University of Medical Sciences (NUMS) Pakistan; Department of Medicine, Combined Military Hospital Lahore/National University of Medical Sciences (NUMS) Pakistan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387247699</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Impact of Comorbid Conditions on Severity of Dengue Fever: A Comparative Study</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Pakistan Armed Forces Medical Journal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>The Army Press</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.51253/pafmj.v73i4.8237</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.51253/pafmj.v73i4.8237</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dimitrios Filioglou, Muhammad Husnain, Sharad Khurana, Richard J. Simpson, Emmanuel Katsanis</t>
+          <t>Ahsan Ayaz, Syed Arsalan Ahmed Naqvi, Saba Farooq, Kathryn Sickora, Muhammad Hisham Khan Wazir, Mohammad El Hajj, Tashifa S Lateef, Adeel Masood, Saher Nasir Amin, Christopher Rajkumar, Mehul Patel, Muhammad Husnain, Irbaz Bin Riaz, Sajid Ahmad Mir</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388940751</t>
+          <t>1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 2Mayo Clinic, Phoenix, AZ; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 3University of Pittsburg, Pittsburgh, PA; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY; 4University of Arizona, Tucson, AZ; 2Mayo Clinic, Phoenix, AZ; 1Montefiore St. Luke's Cornwall Hospital, Newburgh, NY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Has the shortage of fludarabine altered the current paradigm of lymphodepletion in favor of bendamustine?</t>
+          <t>https://openalex.org/W4389234199</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>Cardiovascular (CV) Mortality Among Adults Diagnosed with Leukemias: A Retrospective Cohort Study</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Frontiers in Immunology</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1329850</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1182/blood-2023-190472</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38077398</t>
-        </is>
-      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1329850</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-190472</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ahsan Ayaz, Syed Arsalan Ahmed Naqvi, Saba Farooq, Kathryn Sickora, Muhammad Hisham Khan Wazir, Mohammad El Hajj, Tashifa S Lateef, Adeel Masood, Saher Nasir Amin, Christopher Rajkumar, Mehul Patel, Muhammad Husnain, Irbaz Bin Riaz, Sajid Ahmad Mir</t>
+          <t>Noureen Asghar, Syed Arsalan Ahmed Naqvi, Kanwal Asghar, Joseph Thirumalareddy, Noureen Asghar, Muhammad Husnain, Rajshekhar Chakraborty, Bradley DeVrieze, Abraham Mathews, Irbaz Bin Riaz, Mohammed A. Aljama</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389234199</t>
+          <t>1Creighton University, Omaha, NE; 2Mayo Clinic, Phoenix, AZ; 3Dow Medical College, Karachi, Pakistan; 1Creighton University, Omaha, NE; 1Creighton University, Omaha, NE; 4University of Arizona, Tucson, AZ; 5Columbia University Irving Medical Center, Thornwood, NY; 6Creighton University, Omaha; 7Hematology &amp; Oncology Consultants, Omaha, NE; 8Dana-Farber Cancer Institute, Boston, MA; 9Juravinski Cancer Centre, Hamilton, CAN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cardiovascular (CV) Mortality Among Adults Diagnosed with Leukemias: A Retrospective Cohort Study</t>
+          <t>https://openalex.org/W4389243189</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Efficacy of Maintenance Therapies By Prognostic Subgroups in Post-Transplant Newly Diagnosed Multiple Myeloma Patients: A Systematic Review and Network Meta-Analysis</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2023-190472</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1182/blood-2023-190200</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2023-190472</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-190200</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,80 +2013,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Noureen Asghar, Syed Arsalan Ahmed Naqvi, Kanwal Asghar, Joseph Thirumalareddy, Noureen Asghar, Muhammad Husnain, Rajshekhar Chakraborty, Bradley DeVrieze, Abraham Mathews, Irbaz Bin Riaz, Mohammed A. Aljama</t>
+          <t>Sanjana Allam, Sahil Sartaj, Hiba Moquim, Muhammad Husnain, Daniel Bustos, Mohit Lakkimsetti, Ajit Randhawa, Ishita Gupta</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389243189</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Efficacy of Maintenance Therapies By Prognostic Subgroups in Post-Transplant Newly Diagnosed Multiple Myeloma Patients: A Systematic Review and Network Meta-Analysis</t>
+          <t>https://openalex.org/W4389376873</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>Role of Liraglutide Use in Patients With Heart Failure</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Cureus</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-190200</t>
+          <t>Cureus, Inc.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.7759/cureus.50065</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-190200</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38186489</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.50065</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,80 +2100,85 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sanjana Allam, Sahil Sartaj, Hiba Moquim, Muhammad Husnain, Daniel Bustos, Mohit Lakkimsetti, Ajit Randhawa, Ishita Gupta</t>
+          <t>Clinton Wu, Pete Manchen, Andrew S. Edelman, Muhammad Husnain, Emmanuel Katsanis, Deborah Fuchs, Laura Stephens, Sharad Khurana</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389376873</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Role of Liraglutide Use in Patients With Heart Failure</t>
+          <t>https://openalex.org/W4390340527</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>Refractory Pure Red Blood Cell Aplasia Secondary to Major ABO-Incompatible Allogeneic Stem Cell Transplantation Successfully Treated With Daratumumab</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cureus</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cureus, Inc.</t>
+          <t>Journal of hematology</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.50065</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14740/jh1195</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>cc-by-nc</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38186489</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.50065</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38188476</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14740/jh1195</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,80 +2187,85 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Clinton Wu, Pete Manchen, Andrew S. Edelman, Muhammad Husnain, Emmanuel Katsanis, Deborah Fuchs, Laura Stephens, Sharad Khurana</t>
+          <t>Dimitrios Filioglou, Muhammad Husnain, Sharad Khurana, Richard J. Simpson, Emmanuel Katsanis</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390340527</t>
+          <t>Department of Pediatrics, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; The University of Arizona Cancer Center, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; The University of Arizona Cancer Center, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Department of Pediatrics, University of Arizona, Tucson, AZ, United States; School of Nutritional Sciences and Wellness, University of Arizona, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Pathology, University of Arizona, Tucson, AZ, United States; Department of Pediatrics, University of Arizona, Tucson, AZ, United States; The University of Arizona Cancer Center, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Refractory Pure Red Blood Cell Aplasia Secondary to Major ABO-Incompatible Allogeneic Stem Cell Transplantation Successfully Treated With Daratumumab</t>
+          <t>https://openalex.org/W4388940751</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Has the shortage of fludarabine altered the current paradigm of lymphodepletion in favor of bendamustine?</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Journal of hematology</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers in Immunology</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14740/jh1195</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.3389/fimmu.2023.1329850</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38188476</t>
-        </is>
-      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14740/jh1195</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38077398</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fimmu.2023.1329850</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
